--- a/data/trans_orig/P14C10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77568373-0B87-457C-BBC6-298AF574FF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{266B6A07-633C-4B04-A883-BEC1D99EC7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{117A2073-BE1C-4E57-A83A-44250554B292}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97260D14-9C85-4F10-9286-96689BBEA779}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="165">
   <si>
     <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 3,97%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>66,62%</t>
   </si>
   <si>
-    <t>12,55%</t>
+    <t>11,18%</t>
   </si>
   <si>
     <t>68,05%</t>
   </si>
   <si>
-    <t>29,62%</t>
+    <t>29,77%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,13 +107,13 @@
     <t>33,38%</t>
   </si>
   <si>
-    <t>87,45%</t>
+    <t>88,82%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>70,38%</t>
+    <t>70,23%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -140,76 +140,76 @@
     <t>53,03%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>72,85%</t>
   </si>
   <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
   </si>
   <si>
     <t>28,45%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>24,14%</t>
+    <t>24,43%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>19,44%</t>
+    <t>19,65%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -218,319 +218,316 @@
     <t>82,61%</t>
   </si>
   <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>62,45%</t>
   </si>
   <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
   </si>
   <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
   </si>
   <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>21,91%</t>
+    <t>21,05%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>16,4%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>6,85%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -945,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B299946F-BA70-4C68-91F2-2AF6C670CE82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DD6A18-8D79-45CB-99BF-98F54B7DB2C2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2207,7 +2204,7 @@
         <v>157</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -2216,13 +2213,13 @@
         <v>12075</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -2231,13 +2228,13 @@
         <v>19262</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,7 +2290,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C10-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{266B6A07-633C-4B04-A883-BEC1D99EC7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CA5198-57E3-45AA-865D-C459F709DEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97260D14-9C85-4F10-9286-96689BBEA779}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB176963-94B0-4356-AE04-16D16149ECFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="165">
-  <si>
-    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 3,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="164">
+  <si>
+    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2016 (Tasa respuesta: 3,97%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -74,7 +74,7 @@
     <t>70,52%</t>
   </si>
   <si>
-    <t>19,69%</t>
+    <t>0,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>68,05%</t>
   </si>
   <si>
-    <t>29,77%</t>
+    <t>26,3%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -98,12 +98,6 @@
     <t>29,48%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
     <t>33,38%</t>
   </si>
   <si>
@@ -113,7 +107,7 @@
     <t>31,95%</t>
   </si>
   <si>
-    <t>70,23%</t>
+    <t>73,7%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,211 +128,211 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>53,03%</t>
   </si>
   <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
   </si>
   <si>
     <t>72,85%</t>
   </si>
   <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>28,45%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>24,43%</t>
+    <t>24,01%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>19,65%</t>
+    <t>21,04%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>82,61%</t>
   </si>
   <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>62,45%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
   <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
   <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
   </si>
   <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>21,05%</t>
+    <t>18,83%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>73,31%</t>
   </si>
   <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>76,95%</t>
   </si>
   <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>75,28%</t>
   </si>
   <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>26,69%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
   </si>
   <si>
     <t>17,72%</t>
@@ -347,7 +341,7 @@
     <t>9,04%</t>
   </si>
   <si>
-    <t>29,29%</t>
+    <t>29,47%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -359,16 +353,16 @@
     <t>3,62%</t>
   </si>
   <si>
-    <t>29,8%</t>
+    <t>29,46%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -377,157 +371,160 @@
     <t>73,75%</t>
   </si>
   <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>74,9%</t>
   </si>
   <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>25,03%</t>
+    <t>22,27%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,46%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>6,85%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -942,7 +939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DD6A18-8D79-45CB-99BF-98F54B7DB2C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8E9563-C21B-40E0-B177-7058069C6EC9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1120,10 +1117,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1132,13 +1129,13 @@
         <v>2108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1147,19 +1144,19 @@
         <v>3187</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1168,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1183,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1198,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1219,13 +1216,13 @@
         <v>3660</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -1234,13 +1231,13 @@
         <v>6316</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -1249,18 +1246,18 @@
         <v>9976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1272,13 +1269,13 @@
         <v>13151</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -1287,13 +1284,13 @@
         <v>25834</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>37</v>
@@ -1302,13 +1299,13 @@
         <v>38985</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1323,13 +1320,13 @@
         <v>9758</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -1338,13 +1335,13 @@
         <v>7385</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -1353,19 +1350,19 @@
         <v>17143</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -1374,13 +1371,13 @@
         <v>1892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1389,13 +1386,13 @@
         <v>2243</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1404,13 +1401,13 @@
         <v>4135</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1425,13 +1422,13 @@
         <v>24801</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -1440,13 +1437,13 @@
         <v>35462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -1455,18 +1452,18 @@
         <v>60263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1478,13 +1475,13 @@
         <v>32362</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -1493,13 +1490,13 @@
         <v>20711</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M12" s="7">
         <v>51</v>
@@ -1508,13 +1505,13 @@
         <v>53074</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1529,13 +1526,13 @@
         <v>3878</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -1544,13 +1541,13 @@
         <v>10384</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1559,19 +1556,19 @@
         <v>14263</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -1580,13 +1577,13 @@
         <v>2937</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1595,13 +1592,13 @@
         <v>2070</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1610,13 +1607,13 @@
         <v>5007</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,13 +1628,13 @@
         <v>39177</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" s="7">
         <v>29</v>
@@ -1646,13 +1643,13 @@
         <v>33166</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7">
         <v>69</v>
@@ -1661,18 +1658,18 @@
         <v>72343</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1684,13 +1681,13 @@
         <v>21547</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -1699,13 +1696,13 @@
         <v>26725</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -1714,13 +1711,13 @@
         <v>48273</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1735,13 +1732,13 @@
         <v>7847</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1750,13 +1747,13 @@
         <v>3519</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1765,19 +1762,19 @@
         <v>11365</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1786,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1801,13 +1798,13 @@
         <v>4486</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -1816,13 +1813,13 @@
         <v>4486</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,13 +1834,13 @@
         <v>29394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -1852,13 +1849,13 @@
         <v>34729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -1867,18 +1864,18 @@
         <v>64124</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1890,13 +1887,13 @@
         <v>21872</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -1905,13 +1902,13 @@
         <v>34059</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -1920,13 +1917,13 @@
         <v>55932</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1938,13 @@
         <v>5427</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -1956,13 +1953,13 @@
         <v>7680</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -1971,19 +1968,19 @@
         <v>13107</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -1992,13 +1989,13 @@
         <v>2358</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2007,13 +2004,13 @@
         <v>3276</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2022,13 +2019,13 @@
         <v>5634</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2040,13 @@
         <v>29658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -2058,13 +2055,13 @@
         <v>45015</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>68</v>
@@ -2073,13 +2070,13 @@
         <v>74673</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,13 +2093,13 @@
         <v>91515</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>96</v>
@@ -2111,13 +2108,13 @@
         <v>111537</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>188</v>
@@ -2126,13 +2123,13 @@
         <v>203052</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2144,13 @@
         <v>27989</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -2162,13 +2159,13 @@
         <v>31076</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -2177,19 +2174,19 @@
         <v>59065</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>7</v>
@@ -2198,13 +2195,13 @@
         <v>7187</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -2213,13 +2210,13 @@
         <v>12075</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -2228,13 +2225,13 @@
         <v>19262</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2246,13 @@
         <v>126691</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H27" s="7">
         <v>134</v>
@@ -2264,13 +2261,13 @@
         <v>154688</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M27" s="7">
         <v>261</v>
@@ -2279,18 +2276,18 @@
         <v>281379</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
